--- a/Daily Health Checkup/Workflow_Info.xlsx
+++ b/Daily Health Checkup/Workflow_Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,37 +873,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,56 +927,78 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1288,52 +1288,66 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="124" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="I2" s="24" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="I2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1495,313 +1509,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1820,7 +1834,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1829,501 +1843,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="25" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="28" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="28" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="28" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="28" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="28" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="28" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="28" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="28" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="28" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="28" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="28" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="28" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="28" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="28" t="s">
+      <c r="A61" s="51"/>
+      <c r="B61" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="28" t="s">
+      <c r="A62" s="51"/>
+      <c r="B62" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="28" t="s">
+      <c r="A63" s="51"/>
+      <c r="B63" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
-      <c r="B64" s="29" t="s">
+      <c r="A64" s="52"/>
+      <c r="B64" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="28" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="28" t="s">
+      <c r="A67" s="51"/>
+      <c r="B67" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="28" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="28" t="s">
+      <c r="A69" s="51"/>
+      <c r="B69" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="28" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="28" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="28" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="28" t="s">
+      <c r="A73" s="51"/>
+      <c r="B73" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="28" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="28" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="29" t="s">
+      <c r="A76" s="52"/>
+      <c r="B76" s="21" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A65:A76"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="A41:A64"/>
-    <mergeCell ref="A65:A76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -2348,90 +2362,90 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="41" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="29">
         <v>0</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="38">
         <v>0.46527777777777773</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="40">
         <v>0.46728009259259262</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="40">
         <v>0.125</v>
       </c>
     </row>
@@ -2440,5 +2454,6 @@
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Daily Health Checkup/Workflow_Info.xlsx
+++ b/Daily Health Checkup/Workflow_Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1288,8 +1288,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,8 +1494,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1834,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2356,7 +2358,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N2"/>
+      <selection activeCell="A3" sqref="A3:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily Health Checkup/Workflow_Info.xlsx
+++ b/Daily Health Checkup/Workflow_Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -999,6 +999,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1832,10 +1835,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1847,7 @@
     <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>66</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>70</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>72</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>74</v>
       </c>
@@ -1884,27 +1887,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="53"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="53"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>80</v>
       </c>
@@ -1912,27 +1917,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>70</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>74</v>
       </c>
@@ -2357,7 +2362,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:W4"/>
     </sheetView>
   </sheetViews>

--- a/Daily Health Checkup/Workflow_Info.xlsx
+++ b/Daily Health Checkup/Workflow_Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
   <si>
     <t>BDE Base table Analysis</t>
   </si>
@@ -502,6 +502,68 @@
   </si>
   <si>
     <t>Created &amp; started at 11:10(GMT) &amp; runs every 1 hour  till 23:40 (GMT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNSMR_AFR_BASE
+CNSMR_AFR_CMNT_BASE
+CNSMR_AFR_TRD_CNCRN_BASE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/projects/equip/scripts/spark/ca_ingest.py
+/projects/common/*
+/projects/common/spark2_submit.sh
+</t>
+  </si>
+  <si>
+    <t>cnsmr_afr_vhcl_solr
+cnsmr_afr_crnt_vw
+vhcl_solr
+cnsmr_afr_cmnt_clctn_crnt_vw
+cnsmr_afr_trd_cncrn_clctn_crnt_vw
+plant
+cnsmr_afr_vhcl_solr_crnt_vw
+solr_lst_updated_dt</t>
+  </si>
+  <si>
+    <t>PFP_ENGNR_RAW
+PFP_ENGNR
+cmpnt_grp_raw
+cmpnt_grp
+cstmr_stsfcn_team_raw
+cstmr_stsfcn_team
+fld_engrng_stf_raw
+fld_engrng_stf
+fld_qlty_role_raw
+fld_qlty_role
+fqi_grp_raw
+fqi_grp
+fqi_pfp_raw
+fqi_pfp
+fqi_rpsntv_raw
+fqi_rpsntv
+cstmr_stsfcn_team_mbr_raw
+cstmr_stsfcn_team_mbr
+pfp_rspsbl_engnr_raw
+pfp_rspsbl_engnr
+fqi_base_mdl_raw
+fqi_base_mdl
+fqi_crnt_mdl_raw
+fqi_crnt_mdl</t>
+  </si>
+  <si>
+    <t>/projects/equip/scripts/hive/pfp_engnr.hql
+/projects/equip/scripts/hive/cmpnt_grp.hql
+/projects/equip/scripts/hive/cstmr_stsfcn_team.hql
+/projects/equip/scripts/hive/cstmr_stsfcn_team_mbr.hql
+/projects/equip/scripts/hive/fld_engrng_stf.hql
+/projects/equip/scripts/hive/fld_qlty_role.hql
+/projects/equip/scripts/hive/fqi_base_mdl.hql
+/projects/equip/scripts/hive/fqi_crnt_mdl.hql
+/projects/equip/scripts/hive/fqi_grp.hql
+/projects/equip/scripts/hive/fqi_pfp.hql
+/projects/equip/scripts/hive/fqi_rpsntv.hql
+/projects/equip/scripts/hive/pfp_rspsbl_engnr.hql</t>
   </si>
 </sst>
 </file>
@@ -858,7 +920,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,6 +1031,10 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,8 +1066,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1315,14 +1384,14 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="I2" s="16" t="s">
         <v>69</v>
       </c>
@@ -1512,22 +1581,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1550,7 +1619,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1566,7 +1635,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1580,7 +1649,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1663,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1677,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1691,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1705,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1719,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1664,7 +1733,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1678,7 +1747,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1761,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
@@ -1706,7 +1775,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1720,7 +1789,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
@@ -1734,7 +1803,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1748,7 +1817,7 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1762,7 +1831,7 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -1776,7 +1845,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
@@ -1790,7 +1859,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +1873,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="7" t="s">
         <v>63</v>
       </c>
@@ -1835,109 +1904,194 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="42"/>
+      <c r="D2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="42"/>
+      <c r="D3" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="43"/>
+      <c r="D4" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="53"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
       <c r="B7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="53"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
       <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
@@ -1945,7 +2099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>70</v>
       </c>
@@ -1953,7 +2107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>74</v>
       </c>
@@ -1970,7 +2124,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -1978,49 +2132,49 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -2028,43 +2182,43 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="21" t="s">
         <v>101</v>
       </c>
@@ -2118,7 +2272,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2126,145 +2280,145 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -2272,67 +2426,67 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="52"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="21" t="s">
         <v>145</v>
       </c>
@@ -2347,10 +2501,10 @@
     <mergeCell ref="A41:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
-    <hyperlink ref="B36" r:id="rId4"/>
+    <hyperlink ref="B36" r:id="rId1"/>
+    <hyperlink ref="B35" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
@@ -2362,8 +2516,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:W4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily Health Checkup/Workflow_Info.xlsx
+++ b/Daily Health Checkup/Workflow_Info.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="191">
   <si>
     <t>BDE Base table Analysis</t>
   </si>
@@ -564,6 +565,93 @@
 /projects/equip/scripts/hive/fqi_pfp.hql
 /projects/equip/scripts/hive/fqi_rpsntv.hql
 /projects/equip/scripts/hive/pfp_rspsbl_engnr.hql</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Vehicle-Extract-Daily-prd-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Techline-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Techline-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Techline-Solr-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Techline-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=QCS-survey-Ingest-Incremental-Daily-BDE-PRD-wf " | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=QCS-survey-Ingest-Fullload-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-pfp-daily-ingest-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Source-Ingestion-Daily-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Snapshot-Monthly-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Purge-Monthly-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Calculations-Monthly-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-incident-rate-daily-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-INSPECT-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-INSPECT-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Materialized-Views-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Gears-3.0-Adhoc-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Gear-2-0-Monthly-BDE-PRD-wf " | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Monitor-Ingestion-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Claims-Solr-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Claims-Condense-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Claims-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Claims-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-ConsumerAffairs-Solr-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-ConsumerAffairs-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=ConsumerAffairs-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=ConsumerAffairs-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-AVES-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-AVES-Condense-Weekly-BDE-STG-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
   </si>
 </sst>
 </file>
@@ -920,7 +1008,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1035,6 +1123,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,12 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1384,14 +1473,14 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
       <c r="I2" s="16" t="s">
         <v>69</v>
       </c>
@@ -1581,22 +1670,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1619,7 +1708,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1635,7 +1724,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1649,7 +1738,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1752,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1677,7 +1766,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1691,7 +1780,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1794,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +1808,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1733,7 +1822,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1747,7 +1836,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1761,7 +1850,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
@@ -1775,7 +1864,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1789,7 +1878,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
@@ -1803,7 +1892,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1817,7 +1906,7 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1831,7 +1920,7 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -1845,7 +1934,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
@@ -1859,7 +1948,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -1873,7 +1962,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="7" t="s">
         <v>63</v>
       </c>
@@ -1906,8 +1995,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,22 +2049,22 @@
         <v>69</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="45" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="46" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1987,28 +2076,28 @@
         <v>71</v>
       </c>
       <c r="C3" s="42"/>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="45" t="s">
         <v>86</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="46" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2043,7 +2132,7 @@
       <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -2051,20 +2140,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="55" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2072,13 +2161,13 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
@@ -2124,7 +2213,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -2132,49 +2221,49 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="55" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -2182,43 +2271,43 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="21" t="s">
         <v>101</v>
       </c>
@@ -2272,7 +2361,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2280,145 +2369,145 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="55" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -2426,67 +2515,67 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="21" t="s">
         <v>145</v>
       </c>
@@ -2617,4 +2706,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>